--- a/Code/Results/Cases/Case_0_207/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_207/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9460555240128972</v>
+        <v>1.033209817776667</v>
       </c>
       <c r="D2">
-        <v>0.9612057272533824</v>
+        <v>1.040364061206416</v>
       </c>
       <c r="E2">
-        <v>0.9586374798972993</v>
+        <v>1.032405580217793</v>
       </c>
       <c r="F2">
-        <v>0.9614330763672262</v>
+        <v>1.047653177649393</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9699787829930996</v>
+        <v>1.038335797327946</v>
       </c>
       <c r="K2">
-        <v>0.9732333586063592</v>
+        <v>1.043146619765435</v>
       </c>
       <c r="L2">
-        <v>0.9707048067424663</v>
+        <v>1.035210904742591</v>
       </c>
       <c r="M2">
-        <v>0.9734572067966965</v>
+        <v>1.050415214237927</v>
       </c>
       <c r="N2">
-        <v>0.9914037136874972</v>
+        <v>1.016343760030792</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9569180184687718</v>
+        <v>1.035205294500164</v>
       </c>
       <c r="D3">
-        <v>0.9710761024774082</v>
+        <v>1.042231984745102</v>
       </c>
       <c r="E3">
-        <v>0.9678304149821776</v>
+        <v>1.034140018643151</v>
       </c>
       <c r="F3">
-        <v>0.9721648474148016</v>
+        <v>1.049703860060463</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9786562563054712</v>
+        <v>1.039968592958494</v>
       </c>
       <c r="K3">
-        <v>0.9820929541300151</v>
+        <v>1.04482217148767</v>
       </c>
       <c r="L3">
-        <v>0.978892159894265</v>
+        <v>1.036751634166232</v>
       </c>
       <c r="M3">
-        <v>0.9831667245089005</v>
+        <v>1.052274576819546</v>
       </c>
       <c r="N3">
-        <v>0.9946169708113973</v>
+        <v>1.01692184552827</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.963648896796516</v>
+        <v>1.036492677772039</v>
       </c>
       <c r="D4">
-        <v>0.9772001895763583</v>
+        <v>1.043437184137004</v>
       </c>
       <c r="E4">
-        <v>0.9735350127619891</v>
+        <v>1.035258926093309</v>
       </c>
       <c r="F4">
-        <v>0.9788254772273484</v>
+        <v>1.051027453646606</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9840305026169139</v>
+        <v>1.041021176213342</v>
       </c>
       <c r="K4">
-        <v>0.9875818066033578</v>
+        <v>1.045902485317221</v>
       </c>
       <c r="L4">
-        <v>0.9839637018048976</v>
+        <v>1.037744766336921</v>
       </c>
       <c r="M4">
-        <v>0.9891863615453885</v>
+        <v>1.053474000180529</v>
       </c>
       <c r="N4">
-        <v>0.9966037883651593</v>
+        <v>1.017293601880226</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9664131936629108</v>
+        <v>1.037033002415419</v>
       </c>
       <c r="D5">
-        <v>0.9797170102971416</v>
+        <v>1.043943040265628</v>
       </c>
       <c r="E5">
-        <v>0.9758795718087546</v>
+        <v>1.035728522832349</v>
       </c>
       <c r="F5">
-        <v>0.98156335631147</v>
+        <v>1.051583117563118</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9862368558848651</v>
+        <v>1.041462757539929</v>
       </c>
       <c r="K5">
-        <v>0.9898356357325429</v>
+        <v>1.046355740361175</v>
       </c>
       <c r="L5">
-        <v>0.9860459386599087</v>
+        <v>1.038161382251197</v>
       </c>
       <c r="M5">
-        <v>0.991659176968707</v>
+        <v>1.053977371825858</v>
       </c>
       <c r="N5">
-        <v>0.9974185684920878</v>
+        <v>1.017449343421188</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9668736567344982</v>
+        <v>1.037123673732543</v>
       </c>
       <c r="D6">
-        <v>0.9801363465912104</v>
+        <v>1.044027928877298</v>
       </c>
       <c r="E6">
-        <v>0.9762702133025539</v>
+        <v>1.035807324319759</v>
       </c>
       <c r="F6">
-        <v>0.9820195580196466</v>
+        <v>1.051676371226322</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9866043291091003</v>
+        <v>1.04153684733435</v>
       </c>
       <c r="K6">
-        <v>0.9902110409451864</v>
+        <v>1.046431791159425</v>
       </c>
       <c r="L6">
-        <v>0.9863927479754939</v>
+        <v>1.038231281835208</v>
       </c>
       <c r="M6">
-        <v>0.9920711188220849</v>
+        <v>1.054061839995003</v>
       </c>
       <c r="N6">
-        <v>0.9975542165010758</v>
+        <v>1.017475461354829</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9636860830246726</v>
+        <v>1.036499901085955</v>
       </c>
       <c r="D7">
-        <v>0.977234040054478</v>
+        <v>1.043443946563794</v>
       </c>
       <c r="E7">
-        <v>0.9735665459104025</v>
+        <v>1.035265203953129</v>
       </c>
       <c r="F7">
-        <v>0.9788622986052667</v>
+        <v>1.051034881467698</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9840601865160929</v>
+        <v>1.041027080251329</v>
       </c>
       <c r="K7">
-        <v>0.9876121275586447</v>
+        <v>1.045908545277516</v>
       </c>
       <c r="L7">
-        <v>0.9839917152993511</v>
+        <v>1.037750336678347</v>
       </c>
       <c r="M7">
-        <v>0.9892196244036621</v>
+        <v>1.053480729630007</v>
       </c>
       <c r="N7">
-        <v>0.9966147539550718</v>
+        <v>1.017295685038061</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9497920789261967</v>
+        <v>1.033885004760163</v>
       </c>
       <c r="D8">
-        <v>0.964599185751052</v>
+        <v>1.040996066642932</v>
       </c>
       <c r="E8">
-        <v>0.9617978148991778</v>
+        <v>1.032992455666478</v>
       </c>
       <c r="F8">
-        <v>0.9651222760792699</v>
+        <v>1.048346920193926</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9729641991583003</v>
+        <v>1.038888436951765</v>
       </c>
       <c r="K8">
-        <v>0.9762810401096033</v>
+        <v>1.0437136958539</v>
       </c>
       <c r="L8">
-        <v>0.9735213909597962</v>
+        <v>1.035732404095282</v>
       </c>
       <c r="M8">
-        <v>0.9767963739940654</v>
+        <v>1.051044375663713</v>
       </c>
       <c r="N8">
-        <v>0.9925098321630863</v>
+        <v>1.016539607745481</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9227085806157682</v>
+        <v>1.029246850724946</v>
       </c>
       <c r="D9">
-        <v>0.9400475653283793</v>
+        <v>1.036655025604319</v>
       </c>
       <c r="E9">
-        <v>0.9389397192656774</v>
+        <v>1.028960729416597</v>
       </c>
       <c r="F9">
-        <v>0.9384374824611641</v>
+        <v>1.043583780703101</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9513204746276308</v>
+        <v>1.035088772547042</v>
       </c>
       <c r="K9">
-        <v>0.9541944755429397</v>
+        <v>1.039815468083834</v>
       </c>
       <c r="L9">
-        <v>0.9531077602020441</v>
+        <v>1.032146442497027</v>
       </c>
       <c r="M9">
-        <v>0.9526151244205637</v>
+        <v>1.046721816072016</v>
       </c>
       <c r="N9">
-        <v>0.9844815350710591</v>
+        <v>1.015189358393274</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.902348998279015</v>
+        <v>1.026132796579066</v>
       </c>
       <c r="D10">
-        <v>0.9216638944939252</v>
+        <v>1.033741098287957</v>
       </c>
       <c r="E10">
-        <v>0.9218376832671962</v>
+        <v>1.026253606906327</v>
       </c>
       <c r="F10">
-        <v>0.9184609986025531</v>
+        <v>1.040388965633011</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9350547389425476</v>
+        <v>1.032533499730399</v>
       </c>
       <c r="K10">
-        <v>0.9376078656786293</v>
+        <v>1.037194787113906</v>
       </c>
       <c r="L10">
-        <v>0.9377777660794334</v>
+        <v>1.02973439348045</v>
       </c>
       <c r="M10">
-        <v>0.9344769831838045</v>
+        <v>1.043818955894508</v>
       </c>
       <c r="N10">
-        <v>0.9784434903595273</v>
+        <v>1.0142767017768</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.892817732977556</v>
+        <v>1.02477882706353</v>
       </c>
       <c r="D11">
-        <v>0.9130806611896608</v>
+        <v>1.03247430891728</v>
       </c>
       <c r="E11">
-        <v>0.9138579429524447</v>
+        <v>1.025076533615259</v>
       </c>
       <c r="F11">
-        <v>0.9091335060460786</v>
+        <v>1.039000640693448</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.927445457428295</v>
+        <v>1.031421500692189</v>
       </c>
       <c r="K11">
-        <v>0.9298516386490989</v>
+        <v>1.036054532196017</v>
       </c>
       <c r="L11">
-        <v>0.930610290742743</v>
+        <v>1.028684610337649</v>
       </c>
       <c r="M11">
-        <v>0.9259997488515004</v>
+        <v>1.042556655902952</v>
       </c>
       <c r="N11">
-        <v>0.9756205705785804</v>
+        <v>1.013878453048855</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8891507563915935</v>
+        <v>1.024275036930368</v>
       </c>
       <c r="D12">
-        <v>0.9097825073075215</v>
+        <v>1.032002983224955</v>
       </c>
       <c r="E12">
-        <v>0.9107926561665648</v>
+        <v>1.024638560003959</v>
       </c>
       <c r="F12">
-        <v>0.9055490959076851</v>
+        <v>1.038484182377525</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9245192334491205</v>
+        <v>1.031007596704836</v>
       </c>
       <c r="K12">
-        <v>0.9268694158263399</v>
+        <v>1.035630142264607</v>
       </c>
       <c r="L12">
-        <v>0.9278547258828033</v>
+        <v>1.028293847671017</v>
       </c>
       <c r="M12">
-        <v>0.9227409137802053</v>
+        <v>1.042086951809284</v>
       </c>
       <c r="N12">
-        <v>0.9745355482377558</v>
+        <v>1.013730057304735</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8899434304108063</v>
+        <v>1.024383141274502</v>
       </c>
       <c r="D13">
-        <v>0.9104952590536372</v>
+        <v>1.032104120081373</v>
       </c>
       <c r="E13">
-        <v>0.9114550363429003</v>
+        <v>1.024732541443185</v>
       </c>
       <c r="F13">
-        <v>0.9063237250202847</v>
+        <v>1.038594999873626</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9251517145077549</v>
+        <v>1.031096419737625</v>
       </c>
       <c r="K13">
-        <v>0.9275139769708312</v>
+        <v>1.035721214142585</v>
       </c>
       <c r="L13">
-        <v>0.9284502833905912</v>
+        <v>1.028377705356542</v>
       </c>
       <c r="M13">
-        <v>0.9234452341449966</v>
+        <v>1.042187742914526</v>
       </c>
       <c r="N13">
-        <v>0.9747700370074845</v>
+        <v>1.013761910028577</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8925173322334131</v>
+        <v>1.024737201444768</v>
       </c>
       <c r="D14">
-        <v>0.9128103881216205</v>
+        <v>1.032435365131201</v>
       </c>
       <c r="E14">
-        <v>0.9136067316526922</v>
+        <v>1.025040346147724</v>
       </c>
       <c r="F14">
-        <v>0.908839781865173</v>
+        <v>1.038957966018965</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9272057100437617</v>
+        <v>1.031387304905239</v>
       </c>
       <c r="K14">
-        <v>0.9296072927157832</v>
+        <v>1.036019469445283</v>
       </c>
       <c r="L14">
-        <v>0.930384509304961</v>
+        <v>1.028652326765828</v>
       </c>
       <c r="M14">
-        <v>0.9257327270562985</v>
+        <v>1.042517847098967</v>
       </c>
       <c r="N14">
-        <v>0.9755316608266045</v>
+        <v>1.01386619621502</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8940857568690408</v>
+        <v>1.024955234008423</v>
       </c>
       <c r="D15">
-        <v>0.9142216818678377</v>
+        <v>1.032639351487303</v>
       </c>
       <c r="E15">
-        <v>0.9149185305033364</v>
+        <v>1.025229893850176</v>
       </c>
       <c r="F15">
-        <v>0.9103735189346881</v>
+        <v>1.039181498183368</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9284575127924912</v>
+        <v>1.031566414425137</v>
       </c>
       <c r="K15">
-        <v>0.9308831268919884</v>
+        <v>1.036203121201447</v>
       </c>
       <c r="L15">
-        <v>0.9315634226620382</v>
+        <v>1.028821419880528</v>
       </c>
       <c r="M15">
-        <v>0.9271269857743034</v>
+        <v>1.042721124426383</v>
       </c>
       <c r="N15">
-        <v>0.9759959134016779</v>
+        <v>1.013930388052358</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9029649599264257</v>
+        <v>1.026222535333185</v>
       </c>
       <c r="D16">
-        <v>0.9222191071924285</v>
+        <v>1.03382506248829</v>
       </c>
       <c r="E16">
-        <v>0.9223539787286138</v>
+        <v>1.026331620682544</v>
       </c>
       <c r="F16">
-        <v>0.9190643281329849</v>
+        <v>1.04048099744455</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.935546640644176</v>
+        <v>1.032607180461784</v>
       </c>
       <c r="K16">
-        <v>0.9381093339129583</v>
+        <v>1.037270344456555</v>
       </c>
       <c r="L16">
-        <v>0.9382412015604003</v>
+        <v>1.029803949482803</v>
       </c>
       <c r="M16">
-        <v>0.9350251540446618</v>
+        <v>1.043902615730689</v>
       </c>
       <c r="N16">
-        <v>0.9786260368115919</v>
+        <v>1.014303067002877</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9083310650251681</v>
+        <v>1.027015969617862</v>
       </c>
       <c r="D17">
-        <v>0.9270585890359604</v>
+        <v>1.034567459787456</v>
       </c>
       <c r="E17">
-        <v>0.9268548257799263</v>
+        <v>1.027021383557602</v>
       </c>
       <c r="F17">
-        <v>0.9243231361000005</v>
+        <v>1.041294793619089</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9398326161293883</v>
+        <v>1.033258522782284</v>
       </c>
       <c r="K17">
-        <v>0.9424790168550574</v>
+        <v>1.037938300148852</v>
       </c>
       <c r="L17">
-        <v>0.9422796120765734</v>
+        <v>1.030418816083113</v>
       </c>
       <c r="M17">
-        <v>0.9398022876177774</v>
+        <v>1.044642284737378</v>
       </c>
       <c r="N17">
-        <v>0.9802167994544569</v>
+        <v>1.014536012922803</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9113935127279472</v>
+        <v>1.027478231641089</v>
       </c>
       <c r="D18">
-        <v>0.9298225631289513</v>
+        <v>1.03500000313566</v>
       </c>
       <c r="E18">
-        <v>0.929425850764354</v>
+        <v>1.027423242214803</v>
       </c>
       <c r="F18">
-        <v>0.9273265596099046</v>
+        <v>1.041768991645074</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9422790988049528</v>
+        <v>1.033637905997685</v>
       </c>
       <c r="K18">
-        <v>0.94497356916088</v>
+        <v>1.03832738008622</v>
       </c>
       <c r="L18">
-        <v>0.9445851444157385</v>
+        <v>1.030776942719598</v>
       </c>
       <c r="M18">
-        <v>0.9425298651945966</v>
+        <v>1.045073207538318</v>
       </c>
       <c r="N18">
-        <v>0.9811249635700243</v>
+        <v>1.01467159143078</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9124267814964134</v>
+        <v>1.027635761231493</v>
       </c>
       <c r="D19">
-        <v>0.9307554624849439</v>
+        <v>1.035147407869116</v>
       </c>
       <c r="E19">
-        <v>0.9302936977768005</v>
+        <v>1.027560186920779</v>
       </c>
       <c r="F19">
-        <v>0.9283402759645946</v>
+        <v>1.041930601136433</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9431046081907812</v>
+        <v>1.033767176070035</v>
       </c>
       <c r="K19">
-        <v>0.9458153465855065</v>
+        <v>1.038459957592012</v>
       </c>
       <c r="L19">
-        <v>0.9453631510501899</v>
+        <v>1.030898968036121</v>
       </c>
       <c r="M19">
-        <v>0.9434503492876235</v>
+        <v>1.045220054771651</v>
       </c>
       <c r="N19">
-        <v>0.9814314185292731</v>
+        <v>1.014717770427696</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9077624384465262</v>
+        <v>1.026930897155921</v>
       </c>
       <c r="D20">
-        <v>0.9265455468514542</v>
+        <v>1.034487857882049</v>
       </c>
       <c r="E20">
-        <v>0.9263776341108898</v>
+        <v>1.026947427148485</v>
       </c>
       <c r="F20">
-        <v>0.9237656457469703</v>
+        <v>1.04120753038543</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9393783951991644</v>
+        <v>1.033188695298134</v>
       </c>
       <c r="K20">
-        <v>0.9420158944356499</v>
+        <v>1.037866689545704</v>
       </c>
       <c r="L20">
-        <v>0.9418515889545142</v>
+        <v>1.030352900111843</v>
       </c>
       <c r="M20">
-        <v>0.9392959379176906</v>
+        <v>1.044562978573577</v>
       </c>
       <c r="N20">
-        <v>0.9800481965423857</v>
+        <v>1.014511050593771</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.891763057931322</v>
+        <v>1.02463296368405</v>
       </c>
       <c r="D21">
-        <v>0.9121318289981475</v>
+        <v>1.032337843569791</v>
       </c>
       <c r="E21">
-        <v>0.9129760461586163</v>
+        <v>1.024949726405381</v>
       </c>
       <c r="F21">
-        <v>0.9081023403413893</v>
+        <v>1.038851103099653</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9266037526188744</v>
+        <v>1.031301670356717</v>
       </c>
       <c r="K21">
-        <v>0.928993797569577</v>
+        <v>1.035931664315433</v>
       </c>
       <c r="L21">
-        <v>0.9298176302665153</v>
+        <v>1.028571480603897</v>
       </c>
       <c r="M21">
-        <v>0.9250623076748679</v>
+        <v>1.042420662766409</v>
       </c>
       <c r="N21">
-        <v>0.9753084364006973</v>
+        <v>1.013835499531121</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8809572275756624</v>
+        <v>1.023183138755015</v>
       </c>
       <c r="D22">
-        <v>0.9024215206533388</v>
+        <v>1.030981496454734</v>
       </c>
       <c r="E22">
-        <v>0.9039534740567987</v>
+        <v>1.023689305324465</v>
       </c>
       <c r="F22">
-        <v>0.897548477644787</v>
+        <v>1.037365038888683</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9179839313496018</v>
+        <v>1.030110246246446</v>
       </c>
       <c r="K22">
-        <v>0.9202100452902049</v>
+        <v>1.034710115551423</v>
       </c>
       <c r="L22">
-        <v>0.9217021752955223</v>
+        <v>1.027446638298704</v>
       </c>
       <c r="M22">
-        <v>0.9154649050477408</v>
+        <v>1.04106888987864</v>
       </c>
       <c r="N22">
-        <v>0.9721137335669033</v>
+        <v>1.013408039319671</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.8867642093408062</v>
+        <v>1.023952204531718</v>
       </c>
       <c r="D23">
-        <v>0.9076372430145919</v>
+        <v>1.031700961772327</v>
       </c>
       <c r="E23">
-        <v>0.9087991630330949</v>
+        <v>1.024357902465237</v>
       </c>
       <c r="F23">
-        <v>0.9032175345637844</v>
+        <v>1.038153264580367</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.9226152238950838</v>
+        <v>1.030742322659691</v>
       </c>
       <c r="K23">
-        <v>0.9249291187176987</v>
+        <v>1.035358156535574</v>
       </c>
       <c r="L23">
-        <v>0.9260619950357897</v>
+        <v>1.028043400484504</v>
       </c>
       <c r="M23">
-        <v>0.9206208091651228</v>
+        <v>1.041785955696241</v>
       </c>
       <c r="N23">
-        <v>0.9738297558604987</v>
+        <v>1.013634904183486</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9080195835555055</v>
+        <v>1.026969339391032</v>
       </c>
       <c r="D24">
-        <v>0.9267775490921344</v>
+        <v>1.034523828052758</v>
       </c>
       <c r="E24">
-        <v>0.9265934230240777</v>
+        <v>1.026980846312839</v>
       </c>
       <c r="F24">
-        <v>0.9240177479579872</v>
+        <v>1.041246962352937</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9395838022021705</v>
+        <v>1.033220248981014</v>
       </c>
       <c r="K24">
-        <v>0.942225325957617</v>
+        <v>1.037899048923448</v>
       </c>
       <c r="L24">
-        <v>0.9420451477101146</v>
+        <v>1.030382686291497</v>
       </c>
       <c r="M24">
-        <v>0.9395249162044693</v>
+        <v>1.044598815201519</v>
       </c>
       <c r="N24">
-        <v>0.9801244414470874</v>
+        <v>1.014522330906808</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9300688501248011</v>
+        <v>1.030449680348662</v>
       </c>
       <c r="D25">
-        <v>0.9467092273805241</v>
+        <v>1.037780694888123</v>
       </c>
       <c r="E25">
-        <v>0.9451401161389513</v>
+        <v>1.030006337236424</v>
       </c>
       <c r="F25">
-        <v>0.9456767683210118</v>
+        <v>1.044818472727445</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.957202813168254</v>
+        <v>1.036074890452035</v>
       </c>
       <c r="K25">
-        <v>0.9601952727958618</v>
+        <v>1.040827012393664</v>
       </c>
       <c r="L25">
-        <v>0.9586542712110629</v>
+        <v>1.033077186371113</v>
       </c>
       <c r="M25">
-        <v>0.959181295966985</v>
+        <v>1.047842926655275</v>
       </c>
       <c r="N25">
-        <v>0.9866650098779134</v>
+        <v>1.015540600153759</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_207/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_207/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.033209817776667</v>
+        <v>0.9460555240128994</v>
       </c>
       <c r="D2">
-        <v>1.040364061206416</v>
+        <v>0.9612057272533845</v>
       </c>
       <c r="E2">
-        <v>1.032405580217793</v>
+        <v>0.9586374798973011</v>
       </c>
       <c r="F2">
-        <v>1.047653177649393</v>
+        <v>0.9614330763672282</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.038335797327946</v>
+        <v>0.9699787829931018</v>
       </c>
       <c r="K2">
-        <v>1.043146619765435</v>
+        <v>0.9732333586063614</v>
       </c>
       <c r="L2">
-        <v>1.035210904742591</v>
+        <v>0.9707048067424681</v>
       </c>
       <c r="M2">
-        <v>1.050415214237927</v>
+        <v>0.9734572067966983</v>
       </c>
       <c r="N2">
-        <v>1.016343760030792</v>
+        <v>0.9914037136874979</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.035205294500164</v>
+        <v>0.9569180184687721</v>
       </c>
       <c r="D3">
-        <v>1.042231984745102</v>
+        <v>0.9710761024774088</v>
       </c>
       <c r="E3">
-        <v>1.034140018643151</v>
+        <v>0.9678304149821779</v>
       </c>
       <c r="F3">
-        <v>1.049703860060463</v>
+        <v>0.9721648474148019</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.039968592958494</v>
+        <v>0.9786562563054719</v>
       </c>
       <c r="K3">
-        <v>1.04482217148767</v>
+        <v>0.9820929541300158</v>
       </c>
       <c r="L3">
-        <v>1.036751634166232</v>
+        <v>0.9788921598942654</v>
       </c>
       <c r="M3">
-        <v>1.052274576819546</v>
+        <v>0.983166724508901</v>
       </c>
       <c r="N3">
-        <v>1.01692184552827</v>
+        <v>0.9946169708113974</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.036492677772039</v>
+        <v>0.9636488967965156</v>
       </c>
       <c r="D4">
-        <v>1.043437184137004</v>
+        <v>0.9772001895763581</v>
       </c>
       <c r="E4">
-        <v>1.035258926093309</v>
+        <v>0.9735350127619886</v>
       </c>
       <c r="F4">
-        <v>1.051027453646606</v>
+        <v>0.978825477227348</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.041021176213342</v>
+        <v>0.9840305026169135</v>
       </c>
       <c r="K4">
-        <v>1.045902485317221</v>
+        <v>0.9875818066033574</v>
       </c>
       <c r="L4">
-        <v>1.037744766336921</v>
+        <v>0.9839637018048971</v>
       </c>
       <c r="M4">
-        <v>1.053474000180529</v>
+        <v>0.9891863615453882</v>
       </c>
       <c r="N4">
-        <v>1.017293601880226</v>
+        <v>0.9966037883651591</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.037033002415419</v>
+        <v>0.9664131936629101</v>
       </c>
       <c r="D5">
-        <v>1.043943040265628</v>
+        <v>0.979717010297141</v>
       </c>
       <c r="E5">
-        <v>1.035728522832349</v>
+        <v>0.9758795718087541</v>
       </c>
       <c r="F5">
-        <v>1.051583117563118</v>
+        <v>0.9815633563114691</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.041462757539929</v>
+        <v>0.9862368558848644</v>
       </c>
       <c r="K5">
-        <v>1.046355740361175</v>
+        <v>0.989835635732542</v>
       </c>
       <c r="L5">
-        <v>1.038161382251197</v>
+        <v>0.9860459386599081</v>
       </c>
       <c r="M5">
-        <v>1.053977371825858</v>
+        <v>0.9916591769687062</v>
       </c>
       <c r="N5">
-        <v>1.017449343421188</v>
+        <v>0.9974185684920874</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.037123673732543</v>
+        <v>0.966873656734498</v>
       </c>
       <c r="D6">
-        <v>1.044027928877298</v>
+        <v>0.9801363465912102</v>
       </c>
       <c r="E6">
-        <v>1.035807324319759</v>
+        <v>0.9762702133025537</v>
       </c>
       <c r="F6">
-        <v>1.051676371226322</v>
+        <v>0.9820195580196462</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.04153684733435</v>
+        <v>0.9866043291091002</v>
       </c>
       <c r="K6">
-        <v>1.046431791159425</v>
+        <v>0.9902110409451862</v>
       </c>
       <c r="L6">
-        <v>1.038231281835208</v>
+        <v>0.9863927479754937</v>
       </c>
       <c r="M6">
-        <v>1.054061839995003</v>
+        <v>0.9920711188220847</v>
       </c>
       <c r="N6">
-        <v>1.017475461354829</v>
+        <v>0.9975542165010756</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.036499901085955</v>
+        <v>0.9636860830246718</v>
       </c>
       <c r="D7">
-        <v>1.043443946563794</v>
+        <v>0.9772340400544769</v>
       </c>
       <c r="E7">
-        <v>1.035265203953129</v>
+        <v>0.9735665459104016</v>
       </c>
       <c r="F7">
-        <v>1.051034881467698</v>
+        <v>0.9788622986052657</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.041027080251329</v>
+        <v>0.9840601865160922</v>
       </c>
       <c r="K7">
-        <v>1.045908545277516</v>
+        <v>0.9876121275586436</v>
       </c>
       <c r="L7">
-        <v>1.037750336678347</v>
+        <v>0.9839917152993503</v>
       </c>
       <c r="M7">
-        <v>1.053480729630007</v>
+        <v>0.9892196244036611</v>
       </c>
       <c r="N7">
-        <v>1.017295685038061</v>
+        <v>0.9966147539550714</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.033885004760163</v>
+        <v>0.9497920789261981</v>
       </c>
       <c r="D8">
-        <v>1.040996066642932</v>
+        <v>0.9645991857510535</v>
       </c>
       <c r="E8">
-        <v>1.032992455666478</v>
+        <v>0.961797814899179</v>
       </c>
       <c r="F8">
-        <v>1.048346920193926</v>
+        <v>0.9651222760792715</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.038888436951765</v>
+        <v>0.9729641991583016</v>
       </c>
       <c r="K8">
-        <v>1.0437136958539</v>
+        <v>0.9762810401096048</v>
       </c>
       <c r="L8">
-        <v>1.035732404095282</v>
+        <v>0.9735213909597974</v>
       </c>
       <c r="M8">
-        <v>1.051044375663713</v>
+        <v>0.9767963739940668</v>
       </c>
       <c r="N8">
-        <v>1.016539607745481</v>
+        <v>0.9925098321630867</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.029246850724946</v>
+        <v>0.9227085806157683</v>
       </c>
       <c r="D9">
-        <v>1.036655025604319</v>
+        <v>0.9400475653283796</v>
       </c>
       <c r="E9">
-        <v>1.028960729416597</v>
+        <v>0.9389397192656777</v>
       </c>
       <c r="F9">
-        <v>1.043583780703101</v>
+        <v>0.9384374824611645</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.035088772547042</v>
+        <v>0.951320474627631</v>
       </c>
       <c r="K9">
-        <v>1.039815468083834</v>
+        <v>0.95419447554294</v>
       </c>
       <c r="L9">
-        <v>1.032146442497027</v>
+        <v>0.9531077602020444</v>
       </c>
       <c r="M9">
-        <v>1.046721816072016</v>
+        <v>0.9526151244205644</v>
       </c>
       <c r="N9">
-        <v>1.015189358393274</v>
+        <v>0.9844815350710592</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.026132796579066</v>
+        <v>0.9023489982790145</v>
       </c>
       <c r="D10">
-        <v>1.033741098287957</v>
+        <v>0.9216638944939244</v>
       </c>
       <c r="E10">
-        <v>1.026253606906327</v>
+        <v>0.9218376832671955</v>
       </c>
       <c r="F10">
-        <v>1.040388965633011</v>
+        <v>0.9184609986025526</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.032533499730399</v>
+        <v>0.9350547389425469</v>
       </c>
       <c r="K10">
-        <v>1.037194787113906</v>
+        <v>0.9376078656786287</v>
       </c>
       <c r="L10">
-        <v>1.02973439348045</v>
+        <v>0.9377777660794328</v>
       </c>
       <c r="M10">
-        <v>1.043818955894508</v>
+        <v>0.934476983183804</v>
       </c>
       <c r="N10">
-        <v>1.0142767017768</v>
+        <v>0.978443490359527</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.02477882706353</v>
+        <v>0.8928177329775558</v>
       </c>
       <c r="D11">
-        <v>1.03247430891728</v>
+        <v>0.9130806611896609</v>
       </c>
       <c r="E11">
-        <v>1.025076533615259</v>
+        <v>0.913857942952445</v>
       </c>
       <c r="F11">
-        <v>1.039000640693448</v>
+        <v>0.9091335060460787</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.031421500692189</v>
+        <v>0.9274454574282949</v>
       </c>
       <c r="K11">
-        <v>1.036054532196017</v>
+        <v>0.9298516386490989</v>
       </c>
       <c r="L11">
-        <v>1.028684610337649</v>
+        <v>0.9306102907427432</v>
       </c>
       <c r="M11">
-        <v>1.042556655902952</v>
+        <v>0.9259997488515004</v>
       </c>
       <c r="N11">
-        <v>1.013878453048855</v>
+        <v>0.9756205705785804</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.024275036930368</v>
+        <v>0.8891507563915916</v>
       </c>
       <c r="D12">
-        <v>1.032002983224955</v>
+        <v>0.9097825073075202</v>
       </c>
       <c r="E12">
-        <v>1.024638560003959</v>
+        <v>0.9107926561665629</v>
       </c>
       <c r="F12">
-        <v>1.038484182377525</v>
+        <v>0.9055490959076835</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.031007596704836</v>
+        <v>0.9245192334491185</v>
       </c>
       <c r="K12">
-        <v>1.035630142264607</v>
+        <v>0.9268694158263381</v>
       </c>
       <c r="L12">
-        <v>1.028293847671017</v>
+        <v>0.9278547258828013</v>
       </c>
       <c r="M12">
-        <v>1.042086951809284</v>
+        <v>0.9227409137802037</v>
       </c>
       <c r="N12">
-        <v>1.013730057304735</v>
+        <v>0.9745355482377552</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.024383141274502</v>
+        <v>0.8899434304108068</v>
       </c>
       <c r="D13">
-        <v>1.032104120081373</v>
+        <v>0.9104952590536375</v>
       </c>
       <c r="E13">
-        <v>1.024732541443185</v>
+        <v>0.9114550363429005</v>
       </c>
       <c r="F13">
-        <v>1.038594999873626</v>
+        <v>0.906323725020285</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.031096419737625</v>
+        <v>0.9251517145077554</v>
       </c>
       <c r="K13">
-        <v>1.035721214142585</v>
+        <v>0.9275139769708317</v>
       </c>
       <c r="L13">
-        <v>1.028377705356542</v>
+        <v>0.9284502833905915</v>
       </c>
       <c r="M13">
-        <v>1.042187742914526</v>
+        <v>0.9234452341449969</v>
       </c>
       <c r="N13">
-        <v>1.013761910028577</v>
+        <v>0.9747700370074847</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.024737201444768</v>
+        <v>0.8925173322334122</v>
       </c>
       <c r="D14">
-        <v>1.032435365131201</v>
+        <v>0.9128103881216195</v>
       </c>
       <c r="E14">
-        <v>1.025040346147724</v>
+        <v>0.9136067316526912</v>
       </c>
       <c r="F14">
-        <v>1.038957966018965</v>
+        <v>0.9088397818651721</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.031387304905239</v>
+        <v>0.9272057100437607</v>
       </c>
       <c r="K14">
-        <v>1.036019469445283</v>
+        <v>0.9296072927157824</v>
       </c>
       <c r="L14">
-        <v>1.028652326765828</v>
+        <v>0.9303845093049601</v>
       </c>
       <c r="M14">
-        <v>1.042517847098967</v>
+        <v>0.9257327270562977</v>
       </c>
       <c r="N14">
-        <v>1.01386619621502</v>
+        <v>0.9755316608266041</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.024955234008423</v>
+        <v>0.8940857568690408</v>
       </c>
       <c r="D15">
-        <v>1.032639351487303</v>
+        <v>0.9142216818678377</v>
       </c>
       <c r="E15">
-        <v>1.025229893850176</v>
+        <v>0.9149185305033364</v>
       </c>
       <c r="F15">
-        <v>1.039181498183368</v>
+        <v>0.9103735189346881</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.031566414425137</v>
+        <v>0.9284575127924913</v>
       </c>
       <c r="K15">
-        <v>1.036203121201447</v>
+        <v>0.9308831268919884</v>
       </c>
       <c r="L15">
-        <v>1.028821419880528</v>
+        <v>0.9315634226620382</v>
       </c>
       <c r="M15">
-        <v>1.042721124426383</v>
+        <v>0.9271269857743035</v>
       </c>
       <c r="N15">
-        <v>1.013930388052358</v>
+        <v>0.975995913401678</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.026222535333185</v>
+        <v>0.9029649599264244</v>
       </c>
       <c r="D16">
-        <v>1.03382506248829</v>
+        <v>0.9222191071924274</v>
       </c>
       <c r="E16">
-        <v>1.026331620682544</v>
+        <v>0.9223539787286127</v>
       </c>
       <c r="F16">
-        <v>1.04048099744455</v>
+        <v>0.9190643281329837</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.032607180461784</v>
+        <v>0.9355466406441749</v>
       </c>
       <c r="K16">
-        <v>1.037270344456555</v>
+        <v>0.9381093339129569</v>
       </c>
       <c r="L16">
-        <v>1.029803949482803</v>
+        <v>0.9382412015603989</v>
       </c>
       <c r="M16">
-        <v>1.043902615730689</v>
+        <v>0.9350251540446608</v>
       </c>
       <c r="N16">
-        <v>1.014303067002877</v>
+        <v>0.9786260368115914</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.027015969617862</v>
+        <v>0.908331065025168</v>
       </c>
       <c r="D17">
-        <v>1.034567459787456</v>
+        <v>0.9270585890359603</v>
       </c>
       <c r="E17">
-        <v>1.027021383557602</v>
+        <v>0.9268548257799262</v>
       </c>
       <c r="F17">
-        <v>1.041294793619089</v>
+        <v>0.9243231361000006</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.033258522782284</v>
+        <v>0.9398326161293883</v>
       </c>
       <c r="K17">
-        <v>1.037938300148852</v>
+        <v>0.9424790168550571</v>
       </c>
       <c r="L17">
-        <v>1.030418816083113</v>
+        <v>0.9422796120765733</v>
       </c>
       <c r="M17">
-        <v>1.044642284737378</v>
+        <v>0.9398022876177774</v>
       </c>
       <c r="N17">
-        <v>1.014536012922803</v>
+        <v>0.9802167994544569</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.027478231641089</v>
+        <v>0.9113935127279501</v>
       </c>
       <c r="D18">
-        <v>1.03500000313566</v>
+        <v>0.9298225631289539</v>
       </c>
       <c r="E18">
-        <v>1.027423242214803</v>
+        <v>0.9294258507643567</v>
       </c>
       <c r="F18">
-        <v>1.041768991645074</v>
+        <v>0.9273265596099074</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.033637905997685</v>
+        <v>0.9422790988049554</v>
       </c>
       <c r="K18">
-        <v>1.03832738008622</v>
+        <v>0.9449735691608826</v>
       </c>
       <c r="L18">
-        <v>1.030776942719598</v>
+        <v>0.9445851444157407</v>
       </c>
       <c r="M18">
-        <v>1.045073207538318</v>
+        <v>0.9425298651945994</v>
       </c>
       <c r="N18">
-        <v>1.01467159143078</v>
+        <v>0.9811249635700251</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.027635761231493</v>
+        <v>0.9124267814964095</v>
       </c>
       <c r="D19">
-        <v>1.035147407869116</v>
+        <v>0.9307554624849406</v>
       </c>
       <c r="E19">
-        <v>1.027560186920779</v>
+        <v>0.9302936977767975</v>
       </c>
       <c r="F19">
-        <v>1.041930601136433</v>
+        <v>0.9283402759645911</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.033767176070035</v>
+        <v>0.9431046081907779</v>
       </c>
       <c r="K19">
-        <v>1.038459957592012</v>
+        <v>0.9458153465855033</v>
       </c>
       <c r="L19">
-        <v>1.030898968036121</v>
+        <v>0.9453631510501868</v>
       </c>
       <c r="M19">
-        <v>1.045220054771651</v>
+        <v>0.9434503492876201</v>
       </c>
       <c r="N19">
-        <v>1.014717770427696</v>
+        <v>0.981431418529272</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.026930897155921</v>
+        <v>0.9077624384465265</v>
       </c>
       <c r="D20">
-        <v>1.034487857882049</v>
+        <v>0.9265455468514544</v>
       </c>
       <c r="E20">
-        <v>1.026947427148485</v>
+        <v>0.9263776341108901</v>
       </c>
       <c r="F20">
-        <v>1.04120753038543</v>
+        <v>0.9237656457469702</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.033188695298134</v>
+        <v>0.9393783951991647</v>
       </c>
       <c r="K20">
-        <v>1.037866689545704</v>
+        <v>0.9420158944356503</v>
       </c>
       <c r="L20">
-        <v>1.030352900111843</v>
+        <v>0.9418515889545146</v>
       </c>
       <c r="M20">
-        <v>1.044562978573577</v>
+        <v>0.9392959379176908</v>
       </c>
       <c r="N20">
-        <v>1.014511050593771</v>
+        <v>0.9800481965423858</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.02463296368405</v>
+        <v>0.8917630579313229</v>
       </c>
       <c r="D21">
-        <v>1.032337843569791</v>
+        <v>0.9121318289981478</v>
       </c>
       <c r="E21">
-        <v>1.024949726405381</v>
+        <v>0.9129760461586168</v>
       </c>
       <c r="F21">
-        <v>1.038851103099653</v>
+        <v>0.9081023403413891</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.031301670356717</v>
+        <v>0.9266037526188752</v>
       </c>
       <c r="K21">
-        <v>1.035931664315433</v>
+        <v>0.9289937975695772</v>
       </c>
       <c r="L21">
-        <v>1.028571480603897</v>
+        <v>0.9298176302665159</v>
       </c>
       <c r="M21">
-        <v>1.042420662766409</v>
+        <v>0.9250623076748679</v>
       </c>
       <c r="N21">
-        <v>1.013835499531121</v>
+        <v>0.9753084364006976</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.023183138755015</v>
+        <v>0.8809572275756596</v>
       </c>
       <c r="D22">
-        <v>1.030981496454734</v>
+        <v>0.9024215206533361</v>
       </c>
       <c r="E22">
-        <v>1.023689305324465</v>
+        <v>0.903953474056796</v>
       </c>
       <c r="F22">
-        <v>1.037365038888683</v>
+        <v>0.8975484776447847</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.030110246246446</v>
+        <v>0.9179839313495991</v>
       </c>
       <c r="K22">
-        <v>1.034710115551423</v>
+        <v>0.9202100452902021</v>
       </c>
       <c r="L22">
-        <v>1.027446638298704</v>
+        <v>0.9217021752955195</v>
       </c>
       <c r="M22">
-        <v>1.04106888987864</v>
+        <v>0.9154649050477386</v>
       </c>
       <c r="N22">
-        <v>1.013408039319671</v>
+        <v>0.9721137335669023</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.023952204531718</v>
+        <v>0.886764209340805</v>
       </c>
       <c r="D23">
-        <v>1.031700961772327</v>
+        <v>0.9076372430145908</v>
       </c>
       <c r="E23">
-        <v>1.024357902465237</v>
+        <v>0.9087991630330938</v>
       </c>
       <c r="F23">
-        <v>1.038153264580367</v>
+        <v>0.903217534563783</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.030742322659691</v>
+        <v>0.9226152238950825</v>
       </c>
       <c r="K23">
-        <v>1.035358156535574</v>
+        <v>0.9249291187176977</v>
       </c>
       <c r="L23">
-        <v>1.028043400484504</v>
+        <v>0.9260619950357885</v>
       </c>
       <c r="M23">
-        <v>1.041785955696241</v>
+        <v>0.9206208091651213</v>
       </c>
       <c r="N23">
-        <v>1.013634904183486</v>
+        <v>0.9738297558604984</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.026969339391032</v>
+        <v>0.908019583555505</v>
       </c>
       <c r="D24">
-        <v>1.034523828052758</v>
+        <v>0.9267775490921338</v>
       </c>
       <c r="E24">
-        <v>1.026980846312839</v>
+        <v>0.9265934230240777</v>
       </c>
       <c r="F24">
-        <v>1.041246962352937</v>
+        <v>0.9240177479579861</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.033220248981014</v>
+        <v>0.9395838022021703</v>
       </c>
       <c r="K24">
-        <v>1.037899048923448</v>
+        <v>0.9422253259576164</v>
       </c>
       <c r="L24">
-        <v>1.030382686291497</v>
+        <v>0.9420451477101145</v>
       </c>
       <c r="M24">
-        <v>1.044598815201519</v>
+        <v>0.9395249162044684</v>
       </c>
       <c r="N24">
-        <v>1.014522330906808</v>
+        <v>0.9801244414470872</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.030449680348662</v>
+        <v>0.9300688501247983</v>
       </c>
       <c r="D25">
-        <v>1.037780694888123</v>
+        <v>0.9467092273805214</v>
       </c>
       <c r="E25">
-        <v>1.030006337236424</v>
+        <v>0.9451401161389487</v>
       </c>
       <c r="F25">
-        <v>1.044818472727445</v>
+        <v>0.9456767683210089</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.036074890452035</v>
+        <v>0.9572028131682514</v>
       </c>
       <c r="K25">
-        <v>1.040827012393664</v>
+        <v>0.9601952727958589</v>
       </c>
       <c r="L25">
-        <v>1.033077186371113</v>
+        <v>0.9586542712110602</v>
       </c>
       <c r="M25">
-        <v>1.047842926655275</v>
+        <v>0.9591812959669822</v>
       </c>
       <c r="N25">
-        <v>1.015540600153759</v>
+        <v>0.9866650098779125</v>
       </c>
     </row>
   </sheetData>
